--- a/2024/shuffle-architecute/Teste10/content/results/metrics_4_7.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_4_7.xlsx
@@ -492,34 +492,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9990911164469732</v>
+        <v>0.961923448960126</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7394374139052451</v>
+        <v>0.7785581251110992</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9992583908875072</v>
+        <v>0.9527555834543345</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9915862249145051</v>
+        <v>0.9148196034162788</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9985583582737403</v>
+        <v>0.9237473046733319</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003814389696344733</v>
+        <v>0.1597991436719894</v>
       </c>
       <c r="H2" t="n">
-        <v>1.742383241653442</v>
+        <v>1.480782985687256</v>
       </c>
       <c r="I2" t="n">
-        <v>0.006675475277006626</v>
+        <v>0.05423681810498238</v>
       </c>
       <c r="J2" t="n">
-        <v>0.008419100195169449</v>
+        <v>0.632034957408905</v>
       </c>
       <c r="K2" t="n">
-        <v>0.007547301240265369</v>
+        <v>0.3431362211704254</v>
       </c>
     </row>
     <row r="3">
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9991076730332712</v>
+        <v>0.9588309813780002</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7390230850435584</v>
+        <v>0.7751294023519346</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9991746110530955</v>
+        <v>0.9370125594471415</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9911152347049139</v>
+        <v>0.8983685270357258</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9984413235831306</v>
+        <v>0.9081763072358352</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003744905581697822</v>
+        <v>0.1727775633335114</v>
       </c>
       <c r="H3" t="n">
-        <v>1.745153784751892</v>
+        <v>1.503710746765137</v>
       </c>
       <c r="I3" t="n">
-        <v>0.007429605815559626</v>
+        <v>0.07230988889932632</v>
       </c>
       <c r="J3" t="n">
-        <v>0.008890388533473015</v>
+        <v>0.7541012167930603</v>
       </c>
       <c r="K3" t="n">
-        <v>0.008160003460943699</v>
+        <v>0.4132055044174194</v>
       </c>
     </row>
     <row r="4">
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9991136846760347</v>
+        <v>0.9548068865376603</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7386441678061866</v>
+        <v>0.7711558019003719</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9990950770263272</v>
+        <v>0.9149152569616379</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9906442660767057</v>
+        <v>0.8811481412725924</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9983279400125614</v>
+        <v>0.8911604455549812</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003719675820320845</v>
+        <v>0.1896658390760422</v>
       </c>
       <c r="H4" t="n">
-        <v>1.747687697410583</v>
+        <v>1.530282258987427</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008145519532263279</v>
+        <v>0.09767770022153854</v>
       </c>
       <c r="J4" t="n">
-        <v>0.009361655451357365</v>
+        <v>0.88187575340271</v>
       </c>
       <c r="K4" t="n">
-        <v>0.008753590285778046</v>
+        <v>0.4897767007350922</v>
       </c>
     </row>
     <row r="5">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9991119044291699</v>
+        <v>0.9504691626556717</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7382982765322976</v>
+        <v>0.7668974720077075</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9990201231264942</v>
+        <v>0.8885566847682526</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9901827785397447</v>
+        <v>0.8647032159934949</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9982194013305853</v>
+        <v>0.8742403668481692</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00372714689001441</v>
+        <v>0.2078703343868256</v>
       </c>
       <c r="H5" t="n">
-        <v>1.750000715255737</v>
+        <v>1.558757662773132</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008820204064249992</v>
+        <v>0.1279374659061432</v>
       </c>
       <c r="J5" t="n">
-        <v>0.009823434986174107</v>
+        <v>1.003896474838257</v>
       </c>
       <c r="K5" t="n">
-        <v>0.009321814402937889</v>
+        <v>0.5659168362617493</v>
       </c>
     </row>
     <row r="6">
@@ -640,34 +640,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9991044852495615</v>
+        <v>0.9463756162787222</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7379830373984941</v>
+        <v>0.7627151307905614</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9989499397718258</v>
+        <v>0.8609083012047236</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9897372389176022</v>
+        <v>0.8502920209183531</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9981164873220144</v>
+        <v>0.8588323517695418</v>
       </c>
       <c r="G6" t="n">
-        <v>0.003758283797651529</v>
+        <v>0.2250500470399857</v>
       </c>
       <c r="H6" t="n">
-        <v>1.752108573913574</v>
+        <v>1.586724996566772</v>
       </c>
       <c r="I6" t="n">
-        <v>0.009451949037611485</v>
+        <v>0.1596779525279999</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01026925630867481</v>
+        <v>1.110826849937439</v>
       </c>
       <c r="K6" t="n">
-        <v>0.009860590100288391</v>
+        <v>0.6352527737617493</v>
       </c>
     </row>
     <row r="7">
@@ -677,34 +677,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9990930924339005</v>
+        <v>0.9428212982460706</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7376961468759293</v>
+        <v>0.7589141600552152</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9988845483108456</v>
+        <v>0.8344578804583533</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9893118914422664</v>
+        <v>0.8383799590694101</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9980196221453964</v>
+        <v>0.8456376814069035</v>
       </c>
       <c r="G7" t="n">
-        <v>0.003806096501648426</v>
+        <v>0.2399667799472809</v>
       </c>
       <c r="H7" t="n">
-        <v>1.754027009010315</v>
+        <v>1.612142086029053</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01004055980592966</v>
+        <v>0.1900431513786316</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01069487351924181</v>
+        <v>1.199213862419128</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01036769989877939</v>
+        <v>0.6946286559104919</v>
       </c>
     </row>
     <row r="8">
@@ -714,34 +714,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9990790273156195</v>
+        <v>0.9398194788836659</v>
       </c>
       <c r="C8" t="n">
-        <v>0.737435387125791</v>
+        <v>0.7556012336523149</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9988238837352734</v>
+        <v>0.8103496500177173</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9889096922396553</v>
+        <v>0.8286935866514165</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9979290277035374</v>
+        <v>0.834576659906495</v>
       </c>
       <c r="G8" t="n">
-        <v>0.003865125123411417</v>
+        <v>0.2525647580623627</v>
       </c>
       <c r="H8" t="n">
-        <v>1.755770921707153</v>
+        <v>1.634295701980591</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01058662217110395</v>
+        <v>0.2177195250988007</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01109732687473297</v>
+        <v>1.27108633518219</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01084198150783777</v>
+        <v>0.744403064250946</v>
       </c>
     </row>
     <row r="9">
@@ -751,34 +751,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999063280042085</v>
+        <v>0.9372751356674123</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7371986037856449</v>
+        <v>0.7527497481283369</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9987678166113467</v>
+        <v>0.7888680105649817</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9885319564943663</v>
+        <v>0.8207391690393654</v>
       </c>
       <c r="F9" t="n">
-        <v>0.997844729925449</v>
+        <v>0.825278615456093</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003931213170289993</v>
+        <v>0.2632428407669067</v>
       </c>
       <c r="H9" t="n">
-        <v>1.757354140281677</v>
+        <v>1.653363585472107</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01109130121767521</v>
+        <v>0.2423805594444275</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01147530227899551</v>
+        <v>1.330107808113098</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01128329802304506</v>
+        <v>0.7862441539764404</v>
       </c>
     </row>
     <row r="10">
@@ -788,34 +788,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9990466082043119</v>
+        <v>0.9350933845788021</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7369837958692389</v>
+        <v>0.7502945735975634</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9987161572717654</v>
+        <v>0.7699332213335194</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9881794046522947</v>
+        <v>0.814099448186777</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9977666281026364</v>
+        <v>0.8173892517218845</v>
       </c>
       <c r="G10" t="n">
-        <v>0.004001181572675705</v>
+        <v>0.2723991870880127</v>
       </c>
       <c r="H10" t="n">
-        <v>1.758790612220764</v>
+        <v>1.669781446456909</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0115563040599227</v>
+        <v>0.2641177773475647</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01182807702571154</v>
+        <v>1.379374265670776</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01169217750430107</v>
+        <v>0.8217461705207825</v>
       </c>
     </row>
     <row r="11">
@@ -825,34 +825,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999029581634999</v>
+        <v>0.9332044627340756</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7367891213702504</v>
+        <v>0.7481736392481989</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9986687079749267</v>
+        <v>0.7533465216340488</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9878519346236102</v>
+        <v>0.8084805369925481</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9976945408028985</v>
+        <v>0.8106410248248626</v>
       </c>
       <c r="G11" t="n">
-        <v>0.004072638228535652</v>
+        <v>0.2803265452384949</v>
       </c>
       <c r="H11" t="n">
-        <v>1.760092258453369</v>
+        <v>1.683964014053345</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01198341231793165</v>
+        <v>0.2831593751907349</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01215575449168682</v>
+        <v>1.421066284179688</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01206957083195448</v>
+        <v>0.8521131873130798</v>
       </c>
     </row>
     <row r="12">
@@ -862,34 +862,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9990126148594812</v>
+        <v>0.9315552296509897</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7366128035729502</v>
+        <v>0.7463361915694544</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9986252090587276</v>
+        <v>0.738877348284144</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9875489470741138</v>
+        <v>0.8036657228651884</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9976281827390074</v>
+        <v>0.8048259193063791</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00414384389296174</v>
+        <v>0.2872480452060699</v>
       </c>
       <c r="H12" t="n">
-        <v>1.761271476745605</v>
+        <v>1.696251034736633</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01237496081739664</v>
+        <v>0.2997700572013855</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01245893351733685</v>
+        <v>1.456791996955872</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01241696905344725</v>
+        <v>0.8782810568809509</v>
       </c>
     </row>
     <row r="13">
@@ -899,34 +899,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9989960163203271</v>
+        <v>0.9301075536866212</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7364532043606858</v>
+        <v>0.7447377422311739</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9985854132938261</v>
+        <v>0.7262555178530063</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9872696161523422</v>
+        <v>0.7995091222044278</v>
       </c>
       <c r="F13" t="n">
-        <v>0.997567279845765</v>
+        <v>0.7997890190427071</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004213504493236542</v>
+        <v>0.2933236062526703</v>
       </c>
       <c r="H13" t="n">
-        <v>1.762338638305664</v>
+        <v>1.706939935684204</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01273317541927099</v>
+        <v>0.3142600059509277</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01273844111710787</v>
+        <v>1.48763382434845</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01273580826818943</v>
+        <v>0.900947093963623</v>
       </c>
     </row>
     <row r="14">
@@ -936,34 +936,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9989800048918719</v>
+        <v>0.9288307097339519</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7363088503218882</v>
+        <v>0.743343237217606</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9985490840301645</v>
+        <v>0.7152469616445433</v>
       </c>
       <c r="E14" t="n">
-        <v>0.987012936317097</v>
+        <v>0.7958948327621912</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9975115176700611</v>
+        <v>0.7954050597953852</v>
       </c>
       <c r="G14" t="n">
-        <v>0.004280701279640198</v>
+        <v>0.2986822724342346</v>
       </c>
       <c r="H14" t="n">
-        <v>1.763303995132446</v>
+        <v>1.716264963150024</v>
       </c>
       <c r="I14" t="n">
-        <v>0.013060187920928</v>
+        <v>0.3268978595733643</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01299528405070305</v>
+        <v>1.514451742172241</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01302773505449295</v>
+        <v>0.9206748008728027</v>
       </c>
     </row>
     <row r="15">
@@ -973,34 +973,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9989647269871279</v>
+        <v>0.9277000686377123</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7361783664062832</v>
+        <v>0.7421225758697221</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9985159637323282</v>
+        <v>0.7056253382504869</v>
       </c>
       <c r="E15" t="n">
-        <v>0.986777747467249</v>
+        <v>0.7927354789134757</v>
       </c>
       <c r="F15" t="n">
-        <v>0.997460569924544</v>
+        <v>0.7915729867514687</v>
       </c>
       <c r="G15" t="n">
-        <v>0.004344819113612175</v>
+        <v>0.3034273386001587</v>
       </c>
       <c r="H15" t="n">
-        <v>1.764176487922668</v>
+        <v>1.724427580833435</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01335831545293331</v>
+        <v>0.3379435539245605</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01323062088340521</v>
+        <v>1.537894010543823</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01329445838928223</v>
+        <v>0.9379190802574158</v>
       </c>
     </row>
     <row r="16">
@@ -1010,34 +1010,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9989502701680908</v>
+        <v>0.9266960941136777</v>
       </c>
       <c r="C16" t="n">
-        <v>0.736060446090816</v>
+        <v>0.741051185334715</v>
       </c>
       <c r="D16" t="n">
-        <v>0.998485822692915</v>
+        <v>0.6972051838392688</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9865625041780026</v>
+        <v>0.7899616414614968</v>
       </c>
       <c r="F16" t="n">
-        <v>0.997414087280878</v>
+        <v>0.7882121145281425</v>
       </c>
       <c r="G16" t="n">
-        <v>0.004405491519719362</v>
+        <v>0.3076408207416534</v>
       </c>
       <c r="H16" t="n">
-        <v>1.764964938163757</v>
+        <v>1.731591939926147</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01362962368875742</v>
+        <v>0.3476099371910095</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01344600040465593</v>
+        <v>1.558475732803345</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0135378036648035</v>
+        <v>0.9530429840087891</v>
       </c>
     </row>
     <row r="17">
@@ -1047,34 +1047,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9989366904753374</v>
+        <v>0.9258019225341442</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7359539202079064</v>
+        <v>0.7401075347740044</v>
       </c>
       <c r="D17" t="n">
-        <v>0.998458398984911</v>
+        <v>0.6898069033875447</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9863660799709761</v>
+        <v>0.7875180663048253</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9973717351844196</v>
+        <v>0.7852538566248672</v>
       </c>
       <c r="G17" t="n">
-        <v>0.004462482407689095</v>
+        <v>0.3113934397697449</v>
       </c>
       <c r="H17" t="n">
-        <v>1.765677452087402</v>
+        <v>1.737902164459229</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01387647446244955</v>
+        <v>0.3561031818389893</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01364254951477051</v>
+        <v>1.57660698890686</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01375952642410994</v>
+        <v>0.9663550853729248</v>
       </c>
     </row>
     <row r="18">
@@ -1084,34 +1084,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9989240055624825</v>
+        <v>0.9250047977889783</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7358577469099101</v>
+        <v>0.7392744315145071</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9984335104414117</v>
+        <v>0.6832903673104231</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9861869512936109</v>
+        <v>0.7853624041323718</v>
       </c>
       <c r="F18" t="n">
-        <v>0.997333218152286</v>
+        <v>0.782645486670059</v>
       </c>
       <c r="G18" t="n">
-        <v>0.004515718203037977</v>
+        <v>0.3147388100624084</v>
       </c>
       <c r="H18" t="n">
-        <v>1.766320466995239</v>
+        <v>1.743473052978516</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01410050503909588</v>
+        <v>0.3635841906070709</v>
       </c>
       <c r="J18" t="n">
-        <v>0.013821791857481</v>
+        <v>1.592601895332336</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01396117266267538</v>
+        <v>0.9780927300453186</v>
       </c>
     </row>
     <row r="19">
@@ -1121,34 +1121,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9989122102572576</v>
+        <v>0.9242930028046002</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7357709162604269</v>
+        <v>0.7385373534571446</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9984109176454824</v>
+        <v>0.6775391522602511</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9860238385618656</v>
+        <v>0.7834557930919495</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9972982108081467</v>
+        <v>0.7803399747158127</v>
       </c>
       <c r="G19" t="n">
-        <v>0.004565220326185226</v>
+        <v>0.3177260458469391</v>
       </c>
       <c r="H19" t="n">
-        <v>1.766901016235352</v>
+        <v>1.748401999473572</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01430387049913406</v>
+        <v>0.3701866269111633</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01398500707000494</v>
+        <v>1.606748819351196</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01414444204419851</v>
+        <v>0.9884674549102783</v>
       </c>
     </row>
     <row r="20">
@@ -1158,34 +1158,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9989012971510691</v>
+        <v>0.9236559153014473</v>
       </c>
       <c r="C20" t="n">
-        <v>0.73569256757332</v>
+        <v>0.7378837772530163</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9983904465352375</v>
+        <v>0.6724543569437207</v>
       </c>
       <c r="E20" t="n">
-        <v>0.98587571610743</v>
+        <v>0.7817635554034432</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9972664597324481</v>
+        <v>0.7782961868777699</v>
       </c>
       <c r="G20" t="n">
-        <v>0.004611020907759666</v>
+        <v>0.3203997910022736</v>
       </c>
       <c r="H20" t="n">
-        <v>1.767425060272217</v>
+        <v>1.752772450447083</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01448813732713461</v>
+        <v>0.3760239779949188</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01413322333246469</v>
+        <v>1.61930513381958</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01431066542863846</v>
+        <v>0.9976645708084106</v>
       </c>
     </row>
     <row r="21">
@@ -1195,34 +1195,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9988912323052949</v>
+        <v>0.9230851339151768</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7356218947075824</v>
+        <v>0.7373032985023289</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9983719048826206</v>
+        <v>0.6679495723522331</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9857411808495621</v>
+        <v>0.7802590581019585</v>
       </c>
       <c r="F21" t="n">
-        <v>0.997237653571359</v>
+        <v>0.7764811684008205</v>
       </c>
       <c r="G21" t="n">
-        <v>0.004653260577470064</v>
+        <v>0.3227952718734741</v>
       </c>
       <c r="H21" t="n">
-        <v>1.767897605895996</v>
+        <v>1.756654024124146</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0146550377830863</v>
+        <v>0.3811954855918884</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01426784414798021</v>
+        <v>1.630468487739563</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01446147263050079</v>
+        <v>1.005832076072693</v>
       </c>
     </row>
     <row r="22">
@@ -1232,34 +1232,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9988819691602179</v>
+        <v>0.9225737964670584</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7355581471808061</v>
+        <v>0.7367867687549778</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9983551023243691</v>
+        <v>0.6639453830879303</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9856190732688411</v>
+        <v>0.7789220743024083</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9972115492906897</v>
+        <v>0.7748682432127675</v>
       </c>
       <c r="G22" t="n">
-        <v>0.004692135844379663</v>
+        <v>0.3249411880970001</v>
       </c>
       <c r="H22" t="n">
-        <v>1.76832389831543</v>
+        <v>1.760108232498169</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0148062827065587</v>
+        <v>0.3857923448085785</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01439002901315689</v>
+        <v>1.640388965606689</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01459813304245472</v>
+        <v>1.013090252876282</v>
       </c>
     </row>
     <row r="23">
@@ -1269,34 +1269,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9988734791552053</v>
+        <v>0.9221152004663908</v>
       </c>
       <c r="C23" t="n">
-        <v>0.735500684595255</v>
+        <v>0.7363264527029273</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9983399200933031</v>
+        <v>0.6603834744478336</v>
       </c>
       <c r="E23" t="n">
-        <v>0.985508504340268</v>
+        <v>0.7777316626832811</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9971879241016292</v>
+        <v>0.7734323409233772</v>
       </c>
       <c r="G23" t="n">
-        <v>0.004727766383439302</v>
+        <v>0.3268658518791199</v>
       </c>
       <c r="H23" t="n">
-        <v>1.768708109855652</v>
+        <v>1.76318621635437</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01494294311851263</v>
+        <v>0.389881432056427</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01450066734105349</v>
+        <v>1.649221658706665</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01472181733697653</v>
+        <v>1.019551753997803</v>
       </c>
     </row>
     <row r="24">
@@ -1306,34 +1306,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9988657053055688</v>
+        <v>0.921703556008053</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7354488715818647</v>
+        <v>0.7359159855733354</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9983261839585984</v>
+        <v>0.657215240401243</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9854083761473452</v>
+        <v>0.7766690347715475</v>
       </c>
       <c r="F24" t="n">
-        <v>0.997166552791536</v>
+        <v>0.7721522316681394</v>
       </c>
       <c r="G24" t="n">
-        <v>0.004760392475873232</v>
+        <v>0.3285934031009674</v>
       </c>
       <c r="H24" t="n">
-        <v>1.769054651260376</v>
+        <v>1.765931010246277</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01506658643484116</v>
+        <v>0.3935185670852661</v>
       </c>
       <c r="J24" t="n">
-        <v>0.01460085902363062</v>
+        <v>1.657106280326843</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01483369898051023</v>
+        <v>1.025312185287476</v>
       </c>
     </row>
     <row r="25">
@@ -1343,34 +1343,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9988586024655144</v>
+        <v>0.921333821947272</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7354021635263643</v>
+        <v>0.735549414026939</v>
       </c>
       <c r="D25" t="n">
-        <v>0.99831377634373</v>
+        <v>0.6543896778671624</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9853176632544459</v>
+        <v>0.775720237091637</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9971472116772557</v>
+        <v>0.771009485533638</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00479020131751895</v>
+        <v>0.3301451504230499</v>
       </c>
       <c r="H25" t="n">
-        <v>1.769366979598999</v>
+        <v>1.76838231086731</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01517827250063419</v>
+        <v>0.3967623114585876</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01469162944704294</v>
+        <v>1.664146423339844</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01493495516479015</v>
+        <v>1.030454635620117</v>
       </c>
     </row>
     <row r="26">
@@ -1380,34 +1380,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.998852116851604</v>
+        <v>0.9210018859466861</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7353600802261069</v>
+        <v>0.7352217488555695</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9983025587375083</v>
+        <v>0.651866666725834</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9852355429513322</v>
+        <v>0.7748731197057499</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9971297231819238</v>
+        <v>0.7699893102326745</v>
       </c>
       <c r="G26" t="n">
-        <v>0.004817420151084661</v>
+        <v>0.331538200378418</v>
       </c>
       <c r="H26" t="n">
-        <v>1.769648432731628</v>
+        <v>1.770573377609253</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01527924556285143</v>
+        <v>0.3996587693691254</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01477380190044641</v>
+        <v>1.670431971549988</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01502651162445545</v>
+        <v>1.035045385360718</v>
       </c>
     </row>
   </sheetData>
